--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H2">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N2">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O2">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P2">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q2">
-        <v>1005.63198326208</v>
+        <v>184.6975908144267</v>
       </c>
       <c r="R2">
-        <v>9050.687849358721</v>
+        <v>1662.27831732984</v>
       </c>
       <c r="S2">
-        <v>0.2751277277968656</v>
+        <v>0.05026310677285842</v>
       </c>
       <c r="T2">
-        <v>0.2751277277968656</v>
+        <v>0.05026310677285842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H3">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q3">
-        <v>186.577339026816</v>
+        <v>17.22833066255867</v>
       </c>
       <c r="R3">
-        <v>1679.196051241344</v>
+        <v>155.054975963028</v>
       </c>
       <c r="S3">
-        <v>0.05104511411651813</v>
+        <v>0.004688471678444102</v>
       </c>
       <c r="T3">
-        <v>0.05104511411651813</v>
+        <v>0.004688471678444101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H4">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N4">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O4">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P4">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q4">
-        <v>121.056465868992</v>
+        <v>11.22618324212578</v>
       </c>
       <c r="R4">
-        <v>1089.508192820928</v>
+        <v>101.035649179132</v>
       </c>
       <c r="S4">
-        <v>0.0331194621332709</v>
+        <v>0.003055063384760552</v>
       </c>
       <c r="T4">
-        <v>0.0331194621332709</v>
+        <v>0.003055063384760552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H5">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N5">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q5">
-        <v>311.90142720672</v>
+        <v>49.83049136247934</v>
       </c>
       <c r="R5">
-        <v>2807.11284486048</v>
+        <v>448.474422262314</v>
       </c>
       <c r="S5">
-        <v>0.08533214176981926</v>
+        <v>0.01356073621129584</v>
       </c>
       <c r="T5">
-        <v>0.08533214176981926</v>
+        <v>0.01356073621129584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N6">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O6">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P6">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q6">
-        <v>640.073713244799</v>
+        <v>1273.115604844627</v>
       </c>
       <c r="R6">
-        <v>5760.663419203191</v>
+        <v>11458.04044360164</v>
       </c>
       <c r="S6">
-        <v>0.1751157772213075</v>
+        <v>0.3464622646041542</v>
       </c>
       <c r="T6">
-        <v>0.1751157772213075</v>
+        <v>0.3464622646041542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q7">
         <v>118.7544272516487</v>
@@ -883,10 +883,10 @@
         <v>1068.789845264838</v>
       </c>
       <c r="S7">
-        <v>0.0324896545449762</v>
+        <v>0.03231751118343787</v>
       </c>
       <c r="T7">
-        <v>0.0324896545449762</v>
+        <v>0.03231751118343786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N8">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O8">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P8">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q8">
-        <v>77.05111105328123</v>
+        <v>77.38178394950245</v>
       </c>
       <c r="R8">
-        <v>693.459999479531</v>
+        <v>696.436055545522</v>
       </c>
       <c r="S8">
-        <v>0.02108017392162488</v>
+        <v>0.02105847104868841</v>
       </c>
       <c r="T8">
-        <v>0.02108017392162488</v>
+        <v>0.02105847104868841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N9">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q9">
-        <v>198.5218330377317</v>
+        <v>343.4802580310244</v>
       </c>
       <c r="R9">
-        <v>1786.696497339585</v>
+        <v>3091.322322279219</v>
       </c>
       <c r="S9">
-        <v>0.05431297109760428</v>
+        <v>0.09347379577424256</v>
       </c>
       <c r="T9">
-        <v>0.05431297109760428</v>
+        <v>0.09347379577424254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H10">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I10">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J10">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N10">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O10">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P10">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q10">
-        <v>209.50083684095</v>
+        <v>530.3155151516133</v>
       </c>
       <c r="R10">
-        <v>1885.50753156855</v>
+        <v>4772.839636364521</v>
       </c>
       <c r="S10">
-        <v>0.05731668261446979</v>
+        <v>0.1443186413197487</v>
       </c>
       <c r="T10">
-        <v>0.0573166826144698</v>
+        <v>0.1443186413197487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H11">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I11">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J11">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q11">
-        <v>38.86919798919001</v>
+        <v>49.46708297725934</v>
       </c>
       <c r="R11">
-        <v>349.82278190271</v>
+        <v>445.203746795334</v>
       </c>
       <c r="S11">
-        <v>0.01063410303375898</v>
+        <v>0.01346183922846071</v>
       </c>
       <c r="T11">
-        <v>0.01063410303375897</v>
+        <v>0.01346183922846071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H12">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I12">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J12">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N12">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O12">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P12">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q12">
-        <v>25.219395690155</v>
+        <v>32.23333408401622</v>
       </c>
       <c r="R12">
-        <v>226.974561211395</v>
+        <v>290.100006756146</v>
       </c>
       <c r="S12">
-        <v>0.006899696059919502</v>
+        <v>0.008771893047256653</v>
       </c>
       <c r="T12">
-        <v>0.006899696059919502</v>
+        <v>0.008771893047256653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H13">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I13">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J13">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N13">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q13">
-        <v>64.977656935425</v>
+        <v>143.0764883322297</v>
       </c>
       <c r="R13">
-        <v>584.798912418825</v>
+        <v>1287.688394990067</v>
       </c>
       <c r="S13">
-        <v>0.01777703514581707</v>
+        <v>0.03893645162353015</v>
       </c>
       <c r="T13">
-        <v>0.01777703514581707</v>
+        <v>0.03893645162353015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H14">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N14">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O14">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P14">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q14">
-        <v>406.54941085226</v>
+        <v>592.6224058811467</v>
       </c>
       <c r="R14">
-        <v>3658.94469767034</v>
+        <v>5333.60165293032</v>
       </c>
       <c r="S14">
-        <v>0.1112265893553888</v>
+        <v>0.16127467137739</v>
       </c>
       <c r="T14">
-        <v>0.1112265893553889</v>
+        <v>0.16127467137739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H15">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.654086</v>
       </c>
       <c r="O15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q15">
-        <v>75.42809747725201</v>
+        <v>55.27898182938267</v>
       </c>
       <c r="R15">
-        <v>678.8528772952681</v>
+        <v>497.510836464444</v>
       </c>
       <c r="S15">
-        <v>0.02063613868329853</v>
+        <v>0.01504347378725058</v>
       </c>
       <c r="T15">
-        <v>0.02063613868329853</v>
+        <v>0.01504347378725058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H16">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N16">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O16">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P16">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q16">
-        <v>48.939806706674</v>
+        <v>36.02043585124844</v>
       </c>
       <c r="R16">
-        <v>440.458260360066</v>
+        <v>324.183922661236</v>
       </c>
       <c r="S16">
-        <v>0.01338928956331329</v>
+        <v>0.009802504760418239</v>
       </c>
       <c r="T16">
-        <v>0.0133892895633133</v>
+        <v>0.009802504760418239</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H17">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N17">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q17">
-        <v>126.09318675759</v>
+        <v>159.8865775522914</v>
       </c>
       <c r="R17">
-        <v>1134.83868081831</v>
+        <v>1438.979197970622</v>
       </c>
       <c r="S17">
-        <v>0.03449744294204737</v>
+        <v>0.04351110419806303</v>
       </c>
       <c r="T17">
-        <v>0.03449744294204738</v>
+        <v>0.04351110419806302</v>
       </c>
     </row>
   </sheetData>
